--- a/chat_history_Andini_PopAga.xlsx
+++ b/chat_history_Andini_PopAga.xlsx
@@ -19,12 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$456</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$477</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4131" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4131" uniqueCount="891">
   <si>
     <t>Date</t>
   </si>
@@ -2757,6 +2757,9 @@
   </si>
   <si>
     <t>Ask Payment</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -3135,11 +3138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C59" zoomScale="147" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D263" sqref="D263"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I267" sqref="I267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3165,7 +3167,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3173,7 +3175,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>8</v>
@@ -3182,7 +3184,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3190,7 +3192,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -3199,7 +3201,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -3216,7 +3218,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -3233,7 +3235,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -3250,7 +3252,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3258,7 +3260,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -3267,7 +3269,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3275,7 +3277,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -3284,7 +3286,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>25</v>
@@ -3301,7 +3303,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -3318,7 +3320,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3326,7 +3328,7 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
@@ -3335,7 +3337,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -3352,7 +3354,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3360,7 +3362,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -3369,7 +3371,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3377,7 +3379,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>35</v>
@@ -3386,7 +3388,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3394,7 +3396,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>37</v>
@@ -3403,7 +3405,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>38</v>
@@ -3420,7 +3422,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3428,7 +3430,7 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>40</v>
@@ -3437,7 +3439,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3445,7 +3447,7 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>42</v>
@@ -3454,7 +3456,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3462,7 +3464,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>43</v>
@@ -3471,7 +3473,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3479,7 +3481,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>45</v>
@@ -3488,7 +3490,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>47</v>
@@ -3505,7 +3507,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -3513,7 +3515,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>49</v>
@@ -3522,7 +3524,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3530,7 +3532,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>49</v>
@@ -3539,7 +3541,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>52</v>
@@ -3556,7 +3558,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -3564,7 +3566,7 @@
         <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>56</v>
@@ -3573,7 +3575,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3581,7 +3583,7 @@
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>34</v>
@@ -3590,7 +3592,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>60</v>
@@ -3607,7 +3609,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3615,7 +3617,7 @@
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>64</v>
@@ -3624,7 +3626,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3632,7 +3634,7 @@
         <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>68</v>
@@ -3641,7 +3643,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>72</v>
@@ -3658,7 +3660,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>74</v>
@@ -3675,7 +3677,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3683,7 +3685,7 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>75</v>
@@ -3692,7 +3694,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3700,7 +3702,7 @@
         <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>77</v>
@@ -3709,7 +3711,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3717,7 +3719,7 @@
         <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>79</v>
@@ -3726,7 +3728,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>83</v>
@@ -3743,7 +3745,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>86</v>
@@ -3760,7 +3762,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -3768,7 +3770,7 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>89</v>
@@ -3777,7 +3779,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>95</v>
@@ -3794,7 +3796,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -3802,7 +3804,7 @@
         <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>97</v>
@@ -3811,7 +3813,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -3819,7 +3821,7 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>100</v>
@@ -3828,7 +3830,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -3836,7 +3838,7 @@
         <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>103</v>
@@ -3845,7 +3847,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>100</v>
@@ -3862,7 +3864,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -3870,7 +3872,7 @@
         <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>107</v>
@@ -3879,7 +3881,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>108</v>
       </c>
@@ -3887,7 +3889,7 @@
         <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>110</v>
@@ -3896,7 +3898,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>114</v>
@@ -3913,7 +3915,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -3921,7 +3923,7 @@
         <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>97</v>
@@ -3938,7 +3940,7 @@
         <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>119</v>
@@ -3947,7 +3949,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -3955,7 +3957,7 @@
         <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>120</v>
@@ -3964,7 +3966,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -3972,7 +3974,7 @@
         <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>123</v>
@@ -3981,7 +3983,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>117</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>125</v>
@@ -3998,7 +4000,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -4006,7 +4008,7 @@
         <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>114</v>
@@ -4015,7 +4017,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -4023,7 +4025,7 @@
         <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>130</v>
@@ -4032,7 +4034,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>132</v>
@@ -4049,7 +4051,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>128</v>
       </c>
@@ -4057,7 +4059,7 @@
         <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>134</v>
@@ -4066,7 +4068,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>135</v>
       </c>
@@ -4074,7 +4076,7 @@
         <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>140</v>
@@ -4083,7 +4085,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>144</v>
@@ -4100,7 +4102,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>145</v>
       </c>
@@ -4108,7 +4110,7 @@
         <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>144</v>
@@ -4117,7 +4119,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>147</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>68</v>
@@ -4142,7 +4144,7 @@
         <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>153</v>
@@ -4151,7 +4153,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -4159,7 +4161,7 @@
         <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>155</v>
@@ -4168,7 +4170,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>156</v>
@@ -4185,7 +4187,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>158</v>
@@ -4202,7 +4204,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -4210,7 +4212,7 @@
         <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>161</v>
@@ -4219,7 +4221,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -4227,7 +4229,7 @@
         <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>68</v>
@@ -4236,7 +4238,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -4244,7 +4246,7 @@
         <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>165</v>
@@ -4253,7 +4255,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>164</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>118</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>97</v>
@@ -4270,7 +4272,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>167</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>169</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>170</v>
@@ -4287,7 +4289,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>171</v>
       </c>
@@ -4295,14 +4297,14 @@
         <v>172</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>171</v>
       </c>
@@ -4310,14 +4312,14 @@
         <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>174</v>
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>171</v>
       </c>
@@ -4325,14 +4327,14 @@
         <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>175</v>
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>171</v>
       </c>
@@ -4340,7 +4342,7 @@
         <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>176</v>
@@ -4355,7 +4357,7 @@
         <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>178</v>
@@ -4364,7 +4366,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>171</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>177</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>68</v>
@@ -4381,7 +4383,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -4389,7 +4391,7 @@
         <v>179</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>180</v>
@@ -4398,7 +4400,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>181</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>183</v>
@@ -4415,7 +4417,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -4423,7 +4425,7 @@
         <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>68</v>
@@ -4432,7 +4434,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>184</v>
       </c>
@@ -4440,14 +4442,14 @@
         <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>184</v>
       </c>
@@ -4455,14 +4457,14 @@
         <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>187</v>
       </c>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>190</v>
       </c>
@@ -4470,7 +4472,7 @@
         <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>192</v>
@@ -4479,7 +4481,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>190</v>
       </c>
@@ -4487,7 +4489,7 @@
         <v>193</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>194</v>
@@ -4496,7 +4498,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>190</v>
       </c>
@@ -4504,7 +4506,7 @@
         <v>195</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>196</v>
@@ -4513,7 +4515,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>195</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>197</v>
@@ -4530,7 +4532,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -4538,7 +4540,7 @@
         <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>199</v>
@@ -4547,7 +4549,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -4555,7 +4557,7 @@
         <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>200</v>
@@ -4564,7 +4566,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>38</v>
@@ -4581,7 +4583,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>203</v>
@@ -4598,7 +4600,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -4606,7 +4608,7 @@
         <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>204</v>
@@ -4615,7 +4617,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>206</v>
       </c>
@@ -4623,7 +4625,7 @@
         <v>208</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>192</v>
@@ -4632,7 +4634,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>209</v>
       </c>
@@ -4640,7 +4642,7 @@
         <v>154</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>211</v>
@@ -4649,7 +4651,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>216</v>
@@ -4666,7 +4668,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>217</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>219</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>68</v>
@@ -4683,7 +4685,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>220</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>222</v>
@@ -4700,7 +4702,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -4708,7 +4710,7 @@
         <v>223</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>224</v>
@@ -4717,7 +4719,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>225</v>
       </c>
@@ -4725,7 +4727,7 @@
         <v>227</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>68</v>
@@ -4734,7 +4736,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>228</v>
       </c>
@@ -4742,7 +4744,7 @@
         <v>229</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>97</v>
@@ -4751,7 +4753,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>228</v>
       </c>
@@ -4759,7 +4761,7 @@
         <v>230</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>231</v>
@@ -4768,7 +4770,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>233</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>234</v>
@@ -4785,7 +4787,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>233</v>
       </c>
@@ -4793,7 +4795,7 @@
         <v>235</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>236</v>
@@ -4802,7 +4804,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>233</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>235</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>237</v>
@@ -4819,7 +4821,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>233</v>
       </c>
@@ -4827,7 +4829,7 @@
         <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>239</v>
@@ -4836,7 +4838,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>240</v>
       </c>
@@ -4844,7 +4846,7 @@
         <v>241</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>68</v>
@@ -4853,7 +4855,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>242</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>97</v>
@@ -4870,7 +4872,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>244</v>
       </c>
@@ -4878,7 +4880,7 @@
         <v>245</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>97</v>
@@ -4887,7 +4889,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>244</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>245</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>246</v>
@@ -4904,7 +4906,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>248</v>
       </c>
@@ -4912,7 +4914,7 @@
         <v>249</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>68</v>
@@ -4921,7 +4923,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>252</v>
@@ -4938,7 +4940,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>254</v>
       </c>
@@ -4946,7 +4948,7 @@
         <v>255</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>256</v>
@@ -4955,7 +4957,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>254</v>
       </c>
@@ -4963,7 +4965,7 @@
         <v>247</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>257</v>
@@ -4972,7 +4974,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>254</v>
       </c>
@@ -4980,7 +4982,7 @@
         <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>259</v>
@@ -4989,7 +4991,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>261</v>
       </c>
@@ -4997,7 +4999,7 @@
         <v>262</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>68</v>
@@ -5006,7 +5008,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>263</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>151</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>264</v>
@@ -5023,7 +5025,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>263</v>
       </c>
@@ -5031,14 +5033,14 @@
         <v>227</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>265</v>
       </c>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>263</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>68</v>
@@ -5055,7 +5057,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>266</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>267</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>268</v>
@@ -5072,7 +5074,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>272</v>
       </c>
@@ -5080,14 +5082,14 @@
         <v>188</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>273</v>
       </c>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>272</v>
       </c>
@@ -5095,14 +5097,14 @@
         <v>188</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>274</v>
       </c>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>272</v>
       </c>
@@ -5110,7 +5112,7 @@
         <v>275</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>170</v>
@@ -5119,7 +5121,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>272</v>
       </c>
@@ -5127,14 +5129,14 @@
         <v>193</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>276</v>
       </c>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>278</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>279</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>280</v>
@@ -5151,7 +5153,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>278</v>
       </c>
@@ -5159,7 +5161,7 @@
         <v>279</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>281</v>
@@ -5168,7 +5170,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>278</v>
       </c>
@@ -5176,7 +5178,7 @@
         <v>283</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>284</v>
@@ -5185,7 +5187,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>278</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>285</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>286</v>
@@ -5202,7 +5204,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>278</v>
       </c>
@@ -5210,7 +5212,7 @@
         <v>287</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>288</v>
@@ -5219,7 +5221,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>289</v>
       </c>
@@ -5227,7 +5229,7 @@
         <v>290</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>291</v>
@@ -5236,7 +5238,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>289</v>
       </c>
@@ -5244,14 +5246,14 @@
         <v>290</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>292</v>
       </c>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>289</v>
       </c>
@@ -5259,14 +5261,14 @@
         <v>290</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>293</v>
       </c>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>295</v>
       </c>
@@ -5274,14 +5276,14 @@
         <v>296</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>297</v>
       </c>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -5289,14 +5291,14 @@
         <v>300</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>301</v>
       </c>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>303</v>
       </c>
@@ -5304,14 +5306,14 @@
         <v>304</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>305</v>
       </c>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>303</v>
       </c>
@@ -5319,7 +5321,7 @@
         <v>306</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>307</v>
@@ -5328,7 +5330,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>308</v>
       </c>
@@ -5336,7 +5338,7 @@
         <v>309</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>310</v>
@@ -5345,7 +5347,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>308</v>
       </c>
@@ -5353,7 +5355,7 @@
         <v>311</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>114</v>
@@ -5362,7 +5364,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>317</v>
       </c>
@@ -5370,7 +5372,7 @@
         <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>318</v>
@@ -5379,7 +5381,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>317</v>
       </c>
@@ -5387,14 +5389,14 @@
         <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>317</v>
       </c>
@@ -5402,7 +5404,7 @@
         <v>51</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>320</v>
@@ -5411,7 +5413,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>317</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>321</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>97</v>
@@ -5428,7 +5430,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>322</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>325</v>
@@ -5445,7 +5447,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>322</v>
       </c>
@@ -5453,7 +5455,7 @@
         <v>324</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>326</v>
@@ -5462,7 +5464,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>322</v>
       </c>
@@ -5470,14 +5472,14 @@
         <v>327</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>328</v>
       </c>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>322</v>
       </c>
@@ -5485,14 +5487,14 @@
         <v>327</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>329</v>
       </c>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>322</v>
       </c>
@@ -5500,7 +5502,7 @@
         <v>182</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>330</v>
@@ -5509,7 +5511,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>322</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>294</v>
@@ -5526,7 +5528,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>332</v>
       </c>
@@ -5534,14 +5536,14 @@
         <v>334</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>335</v>
       </c>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>332</v>
       </c>
@@ -5549,7 +5551,7 @@
         <v>336</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>97</v>
@@ -5558,7 +5560,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>332</v>
       </c>
@@ -5566,14 +5568,14 @@
         <v>336</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>337</v>
       </c>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>338</v>
       </c>
@@ -5581,14 +5583,14 @@
         <v>339</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>341</v>
       </c>
@@ -5596,14 +5598,14 @@
         <v>339</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>342</v>
       </c>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>343</v>
       </c>
@@ -5611,7 +5613,7 @@
         <v>344</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>345</v>
@@ -5628,7 +5630,7 @@
         <v>346</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>347</v>
@@ -5637,7 +5639,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>348</v>
       </c>
@@ -5645,7 +5647,7 @@
         <v>349</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>350</v>
@@ -5654,7 +5656,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>348</v>
       </c>
@@ -5662,7 +5664,7 @@
         <v>93</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>351</v>
@@ -5679,7 +5681,7 @@
         <v>353</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>354</v>
@@ -5688,7 +5690,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>355</v>
       </c>
@@ -5696,7 +5698,7 @@
         <v>226</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>357</v>
@@ -5705,7 +5707,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>355</v>
       </c>
@@ -5713,14 +5715,14 @@
         <v>358</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>359</v>
       </c>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>355</v>
       </c>
@@ -5728,14 +5730,14 @@
         <v>358</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>355</v>
       </c>
@@ -5743,14 +5745,14 @@
         <v>136</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>361</v>
       </c>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>355</v>
       </c>
@@ -5758,14 +5760,14 @@
         <v>362</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>355</v>
       </c>
@@ -5773,7 +5775,7 @@
         <v>92</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>364</v>
@@ -5782,7 +5784,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>355</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>168</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>365</v>
@@ -5807,7 +5809,7 @@
         <v>366</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>367</v>
@@ -5816,7 +5818,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>355</v>
       </c>
@@ -5824,7 +5826,7 @@
         <v>241</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>369</v>
@@ -5833,7 +5835,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>355</v>
       </c>
@@ -5841,7 +5843,7 @@
         <v>241</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>370</v>
@@ -5850,7 +5852,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>355</v>
       </c>
@@ -5858,14 +5860,14 @@
         <v>260</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>371</v>
       </c>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>355</v>
       </c>
@@ -5873,7 +5875,7 @@
         <v>372</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>373</v>
@@ -5882,7 +5884,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>355</v>
       </c>
@@ -5890,14 +5892,14 @@
         <v>372</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>374</v>
       </c>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>355</v>
       </c>
@@ -5905,7 +5907,7 @@
         <v>299</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>375</v>
@@ -5914,7 +5916,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>355</v>
       </c>
@@ -5922,14 +5924,14 @@
         <v>299</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>376</v>
       </c>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>355</v>
       </c>
@@ -5937,14 +5939,14 @@
         <v>299</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>377</v>
       </c>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>355</v>
       </c>
@@ -5952,7 +5954,7 @@
         <v>283</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>378</v>
@@ -5961,7 +5963,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>355</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>285</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>379</v>
@@ -5978,7 +5980,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>355</v>
       </c>
@@ -5986,14 +5988,14 @@
         <v>380</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>381</v>
       </c>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>355</v>
       </c>
@@ -6001,14 +6003,14 @@
         <v>382</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>383</v>
       </c>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>355</v>
       </c>
@@ -6016,14 +6018,14 @@
         <v>384</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>385</v>
       </c>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>355</v>
       </c>
@@ -6031,14 +6033,14 @@
         <v>386</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>387</v>
       </c>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>355</v>
       </c>
@@ -6046,14 +6048,14 @@
         <v>386</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>388</v>
       </c>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>355</v>
       </c>
@@ -6061,7 +6063,7 @@
         <v>389</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>390</v>
@@ -6070,7 +6072,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>355</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>391</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>392</v>
@@ -6087,7 +6089,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>355</v>
       </c>
@@ -6095,14 +6097,14 @@
         <v>391</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>393</v>
       </c>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>355</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>391</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>394</v>
@@ -6119,7 +6121,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>395</v>
       </c>
@@ -6127,7 +6129,7 @@
         <v>380</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>396</v>
@@ -6136,7 +6138,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>398</v>
       </c>
@@ -6144,7 +6146,7 @@
         <v>58</v>
       </c>
       <c r="C181" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>399</v>
@@ -6153,7 +6155,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>398</v>
       </c>
@@ -6161,7 +6163,7 @@
         <v>58</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>400</v>
@@ -6170,7 +6172,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>401</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>397</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>402</v>
@@ -6187,7 +6189,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>401</v>
       </c>
@@ -6195,7 +6197,7 @@
         <v>312</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>403</v>
@@ -6204,7 +6206,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>404</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>304</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>405</v>
@@ -6221,7 +6223,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>404</v>
       </c>
@@ -6229,14 +6231,14 @@
         <v>304</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>406</v>
       </c>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>407</v>
       </c>
@@ -6244,7 +6246,7 @@
         <v>116</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>408</v>
@@ -6253,7 +6255,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>409</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>410</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>411</v>
@@ -6270,7 +6272,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>414</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>415</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>416</v>
@@ -6295,7 +6297,7 @@
         <v>418</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>419</v>
@@ -6304,7 +6306,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>417</v>
       </c>
@@ -6312,7 +6314,7 @@
         <v>418</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>420</v>
@@ -6321,7 +6323,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>421</v>
       </c>
@@ -6329,7 +6331,7 @@
         <v>422</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>423</v>
@@ -6338,7 +6340,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>424</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>425</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>426</v>
@@ -6355,7 +6357,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>427</v>
       </c>
@@ -6363,7 +6365,7 @@
         <v>58</v>
       </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>429</v>
@@ -6372,7 +6374,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>430</v>
       </c>
@@ -6380,14 +6382,14 @@
         <v>431</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>432</v>
       </c>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>433</v>
       </c>
@@ -6395,14 +6397,14 @@
         <v>434</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>435</v>
       </c>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>433</v>
       </c>
@@ -6410,7 +6412,7 @@
         <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>436</v>
@@ -6419,7 +6421,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>437</v>
       </c>
@@ -6427,7 +6429,7 @@
         <v>314</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>189</v>
@@ -6436,7 +6438,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>438</v>
       </c>
@@ -6444,7 +6446,7 @@
         <v>213</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>439</v>
@@ -6453,7 +6455,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>438</v>
       </c>
@@ -6461,7 +6463,7 @@
         <v>441</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>442</v>
@@ -6470,7 +6472,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>438</v>
       </c>
@@ -6478,14 +6480,14 @@
         <v>444</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>445</v>
       </c>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>447</v>
       </c>
@@ -6493,7 +6495,7 @@
         <v>238</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>448</v>
@@ -6510,7 +6512,7 @@
         <v>450</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>451</v>
@@ -6519,7 +6521,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>449</v>
       </c>
@@ -6527,14 +6529,14 @@
         <v>450</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>452</v>
       </c>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>453</v>
       </c>
@@ -6542,7 +6544,7 @@
         <v>454</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>455</v>
@@ -6551,7 +6553,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>453</v>
       </c>
@@ -6559,7 +6561,7 @@
         <v>454</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>456</v>
@@ -6568,7 +6570,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>453</v>
       </c>
@@ -6576,7 +6578,7 @@
         <v>457</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>458</v>
@@ -6593,7 +6595,7 @@
         <v>154</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>459</v>
@@ -6610,7 +6612,7 @@
         <v>269</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>460</v>
@@ -6619,7 +6621,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>462</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>215</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>463</v>
@@ -6636,7 +6638,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>462</v>
       </c>
@@ -6644,14 +6646,14 @@
         <v>215</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>464</v>
       </c>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>466</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>413</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>467</v>
@@ -6676,7 +6678,7 @@
         <v>413</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>468</v>
@@ -6685,7 +6687,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>466</v>
       </c>
@@ -6693,7 +6695,7 @@
         <v>413</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>469</v>
@@ -6708,7 +6710,7 @@
         <v>413</v>
       </c>
       <c r="C215" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>470</v>
@@ -6717,7 +6719,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>466</v>
       </c>
@@ -6725,7 +6727,7 @@
         <v>471</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>472</v>
@@ -6734,7 +6736,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>466</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>473</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>405</v>
@@ -6759,7 +6761,7 @@
         <v>262</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>475</v>
@@ -6768,7 +6770,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>474</v>
       </c>
@@ -6776,7 +6778,7 @@
         <v>262</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>476</v>
@@ -6785,7 +6787,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>477</v>
       </c>
@@ -6793,7 +6795,7 @@
         <v>66</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>405</v>
@@ -6802,7 +6804,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>478</v>
       </c>
@@ -6810,7 +6812,7 @@
         <v>479</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>480</v>
@@ -6819,7 +6821,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>481</v>
       </c>
@@ -6827,7 +6829,7 @@
         <v>483</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>484</v>
@@ -6836,7 +6838,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>481</v>
       </c>
@@ -6844,7 +6846,7 @@
         <v>485</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>436</v>
@@ -6853,7 +6855,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>486</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>487</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>488</v>
@@ -6870,7 +6872,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>486</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>84</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>490</v>
@@ -6887,7 +6889,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>486</v>
       </c>
@@ -6895,7 +6897,7 @@
         <v>491</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>405</v>
@@ -6912,7 +6914,7 @@
         <v>493</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>494</v>
@@ -6929,7 +6931,7 @@
         <v>20</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>495</v>
@@ -6946,7 +6948,7 @@
         <v>496</v>
       </c>
       <c r="C229" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>497</v>
@@ -6955,7 +6957,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>498</v>
       </c>
@@ -6963,7 +6965,7 @@
         <v>218</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>499</v>
@@ -6972,7 +6974,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>500</v>
       </c>
@@ -6980,7 +6982,7 @@
         <v>482</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>501</v>
@@ -6989,7 +6991,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>502</v>
       </c>
@@ -6997,7 +6999,7 @@
         <v>503</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>323</v>
@@ -7006,7 +7008,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>502</v>
       </c>
@@ -7014,7 +7016,7 @@
         <v>503</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>504</v>
@@ -7023,7 +7025,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>502</v>
       </c>
@@ -7031,7 +7033,7 @@
         <v>503</v>
       </c>
       <c r="C234" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>505</v>
@@ -7040,7 +7042,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>502</v>
       </c>
@@ -7048,7 +7050,7 @@
         <v>446</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>506</v>
@@ -7057,7 +7059,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>502</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>507</v>
       </c>
       <c r="C236" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>508</v>
@@ -7082,7 +7084,7 @@
         <v>163</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>511</v>
@@ -7091,7 +7093,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>510</v>
       </c>
@@ -7099,7 +7101,7 @@
         <v>223</v>
       </c>
       <c r="C238" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>512</v>
@@ -7108,7 +7110,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>514</v>
       </c>
@@ -7116,7 +7118,7 @@
         <v>515</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>405</v>
@@ -7125,7 +7127,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>516</v>
       </c>
@@ -7133,7 +7135,7 @@
         <v>517</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>518</v>
@@ -7142,7 +7144,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>516</v>
       </c>
@@ -7150,7 +7152,7 @@
         <v>208</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>519</v>
@@ -7159,7 +7161,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>520</v>
       </c>
@@ -7167,7 +7169,7 @@
         <v>521</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>522</v>
@@ -7176,7 +7178,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>523</v>
       </c>
@@ -7184,7 +7186,7 @@
         <v>524</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>525</v>
@@ -7193,7 +7195,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>526</v>
       </c>
@@ -7201,7 +7203,7 @@
         <v>169</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>527</v>
@@ -7210,7 +7212,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>528</v>
       </c>
@@ -7218,7 +7220,7 @@
         <v>529</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>426</v>
@@ -7227,7 +7229,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>530</v>
       </c>
@@ -7235,7 +7237,7 @@
         <v>532</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>405</v>
@@ -7244,7 +7246,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>534</v>
       </c>
@@ -7252,7 +7254,7 @@
         <v>535</v>
       </c>
       <c r="C247" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>536</v>
@@ -7261,7 +7263,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>537</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>538</v>
       </c>
       <c r="C248" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>539</v>
@@ -7278,7 +7280,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>540</v>
       </c>
@@ -7286,7 +7288,7 @@
         <v>541</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>542</v>
@@ -7303,7 +7305,7 @@
         <v>54</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>544</v>
@@ -7312,7 +7314,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>545</v>
       </c>
@@ -7320,7 +7322,7 @@
         <v>509</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>546</v>
@@ -7329,7 +7331,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>547</v>
       </c>
@@ -7337,7 +7339,7 @@
         <v>548</v>
       </c>
       <c r="C252" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>549</v>
@@ -7346,7 +7348,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>550</v>
       </c>
@@ -7354,7 +7356,7 @@
         <v>551</v>
       </c>
       <c r="C253" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>405</v>
@@ -7363,7 +7365,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>552</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>553</v>
       </c>
       <c r="C254" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>554</v>
@@ -7380,7 +7382,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>552</v>
       </c>
@@ -7388,7 +7390,7 @@
         <v>555</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>556</v>
@@ -7397,7 +7399,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>557</v>
       </c>
@@ -7405,14 +7407,14 @@
         <v>558</v>
       </c>
       <c r="C256" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>559</v>
       </c>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>563</v>
       </c>
@@ -7420,7 +7422,7 @@
         <v>564</v>
       </c>
       <c r="C257" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>565</v>
@@ -7429,7 +7431,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>563</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>566</v>
       </c>
       <c r="C258" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>567</v>
@@ -7446,7 +7448,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>563</v>
       </c>
@@ -7454,14 +7456,14 @@
         <v>568</v>
       </c>
       <c r="C259" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>569</v>
       </c>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>563</v>
       </c>
@@ -7469,7 +7471,7 @@
         <v>570</v>
       </c>
       <c r="C260" t="s">
-        <v>7</v>
+        <v>890</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>571</v>
@@ -7478,7 +7480,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>572</v>
       </c>
@@ -7486,7 +7488,7 @@
         <v>245</v>
       </c>
       <c r="C261" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>574</v>
@@ -7495,7 +7497,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>575</v>
       </c>
@@ -7503,7 +7505,7 @@
         <v>576</v>
       </c>
       <c r="C262" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>577</v>
@@ -7520,7 +7522,7 @@
         <v>578</v>
       </c>
       <c r="C263" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>579</v>
@@ -7537,7 +7539,7 @@
         <v>580</v>
       </c>
       <c r="C264" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>581</v>
@@ -7546,7 +7548,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>575</v>
       </c>
@@ -7554,7 +7556,7 @@
         <v>580</v>
       </c>
       <c r="C265" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>582</v>
@@ -7571,7 +7573,7 @@
         <v>583</v>
       </c>
       <c r="C266" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>584</v>
@@ -7580,7 +7582,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>575</v>
       </c>
@@ -7588,7 +7590,7 @@
         <v>223</v>
       </c>
       <c r="C267" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>585</v>
@@ -7597,7 +7599,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>575</v>
       </c>
@@ -7605,7 +7607,7 @@
         <v>586</v>
       </c>
       <c r="C268" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>587</v>
@@ -7614,7 +7616,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>575</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>586</v>
       </c>
       <c r="C269" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>588</v>
@@ -7631,7 +7633,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>589</v>
       </c>
@@ -7639,7 +7641,7 @@
         <v>590</v>
       </c>
       <c r="C270" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>591</v>
@@ -7648,7 +7650,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>589</v>
       </c>
@@ -7656,7 +7658,7 @@
         <v>592</v>
       </c>
       <c r="C271" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>593</v>
@@ -7673,7 +7675,7 @@
         <v>358</v>
       </c>
       <c r="C272" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>596</v>
@@ -7682,7 +7684,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>595</v>
       </c>
@@ -7690,7 +7692,7 @@
         <v>157</v>
       </c>
       <c r="C273" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>598</v>
@@ -7699,7 +7701,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>595</v>
       </c>
@@ -7707,7 +7709,7 @@
         <v>599</v>
       </c>
       <c r="C274" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>600</v>
@@ -7716,7 +7718,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>601</v>
       </c>
@@ -7724,7 +7726,7 @@
         <v>602</v>
       </c>
       <c r="C275" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>603</v>
@@ -7733,7 +7735,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>604</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>302</v>
       </c>
       <c r="C276" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>605</v>
@@ -7750,7 +7752,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>606</v>
       </c>
@@ -7758,7 +7760,7 @@
         <v>253</v>
       </c>
       <c r="C277" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>607</v>
@@ -7767,7 +7769,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>606</v>
       </c>
@@ -7775,7 +7777,7 @@
         <v>253</v>
       </c>
       <c r="C278" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>608</v>
@@ -7784,7 +7786,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>606</v>
       </c>
@@ -7792,7 +7794,7 @@
         <v>253</v>
       </c>
       <c r="C279" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>609</v>
@@ -7801,7 +7803,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>606</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>177</v>
       </c>
       <c r="C280" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>610</v>
@@ -7818,7 +7820,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -7826,7 +7828,7 @@
         <v>316</v>
       </c>
       <c r="C281" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>611</v>
@@ -7835,7 +7837,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>612</v>
       </c>
@@ -7843,7 +7845,7 @@
         <v>362</v>
       </c>
       <c r="C282" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>613</v>
@@ -7852,7 +7854,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>614</v>
       </c>
@@ -7860,7 +7862,7 @@
         <v>615</v>
       </c>
       <c r="C283" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>616</v>
@@ -7869,7 +7871,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>614</v>
       </c>
@@ -7877,14 +7879,14 @@
         <v>115</v>
       </c>
       <c r="C284" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>617</v>
       </c>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>614</v>
       </c>
@@ -7892,7 +7894,7 @@
         <v>195</v>
       </c>
       <c r="C285" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>618</v>
@@ -7901,7 +7903,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>614</v>
       </c>
@@ -7909,7 +7911,7 @@
         <v>195</v>
       </c>
       <c r="C286" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>609</v>
@@ -7918,7 +7920,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>614</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>620</v>
       </c>
       <c r="C287" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>621</v>
@@ -7943,7 +7945,7 @@
         <v>356</v>
       </c>
       <c r="C288" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>623</v>
@@ -7952,7 +7954,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>622</v>
       </c>
@@ -7960,7 +7962,7 @@
         <v>356</v>
       </c>
       <c r="C289" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>624</v>
@@ -7969,7 +7971,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>622</v>
       </c>
@@ -7977,7 +7979,7 @@
         <v>625</v>
       </c>
       <c r="C290" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>626</v>
@@ -7986,7 +7988,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>622</v>
       </c>
@@ -7994,7 +7996,7 @@
         <v>627</v>
       </c>
       <c r="C291" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>180</v>
@@ -8003,7 +8005,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>628</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>629</v>
       </c>
       <c r="C292" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>630</v>
@@ -8020,7 +8022,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>628</v>
       </c>
@@ -8028,7 +8030,7 @@
         <v>629</v>
       </c>
       <c r="C293" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>631</v>
@@ -8037,7 +8039,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>628</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>633</v>
       </c>
       <c r="C294" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>634</v>
@@ -8054,7 +8056,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>635</v>
       </c>
@@ -8062,7 +8064,7 @@
         <v>282</v>
       </c>
       <c r="C295" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>636</v>
@@ -8071,7 +8073,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>635</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v>638</v>
       </c>
       <c r="C296" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>180</v>
@@ -8088,7 +8090,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>639</v>
       </c>
@@ -8096,7 +8098,7 @@
         <v>62</v>
       </c>
       <c r="C297" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>640</v>
@@ -8105,7 +8107,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>641</v>
       </c>
@@ -8113,7 +8115,7 @@
         <v>503</v>
       </c>
       <c r="C298" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>642</v>
@@ -8122,7 +8124,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>643</v>
       </c>
@@ -8130,7 +8132,7 @@
         <v>146</v>
       </c>
       <c r="C299" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>603</v>
@@ -8139,7 +8141,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>644</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>646</v>
       </c>
       <c r="C300" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>647</v>
@@ -8156,7 +8158,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>648</v>
       </c>
@@ -8164,7 +8166,7 @@
         <v>649</v>
       </c>
       <c r="C301" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>650</v>
@@ -8173,7 +8175,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>651</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>227</v>
       </c>
       <c r="C302" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>609</v>
@@ -8190,7 +8192,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>652</v>
       </c>
@@ -8198,7 +8200,7 @@
         <v>653</v>
       </c>
       <c r="C303" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>654</v>
@@ -8215,7 +8217,7 @@
         <v>655</v>
       </c>
       <c r="C304" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>656</v>
@@ -8224,7 +8226,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>48</v>
       </c>
@@ -8232,7 +8234,7 @@
         <v>590</v>
       </c>
       <c r="C305" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>658</v>
@@ -8241,7 +8243,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>659</v>
       </c>
@@ -8249,7 +8251,7 @@
         <v>235</v>
       </c>
       <c r="C306" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>660</v>
@@ -8266,7 +8268,7 @@
         <v>662</v>
       </c>
       <c r="C307" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>663</v>
@@ -8275,7 +8277,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>661</v>
       </c>
@@ -8283,7 +8285,7 @@
         <v>664</v>
       </c>
       <c r="C308" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>665</v>
@@ -8292,7 +8294,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>661</v>
       </c>
@@ -8300,7 +8302,7 @@
         <v>142</v>
       </c>
       <c r="C309" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>667</v>
@@ -8309,7 +8311,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>668</v>
       </c>
@@ -8317,7 +8319,7 @@
         <v>207</v>
       </c>
       <c r="C310" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>647</v>
@@ -8334,7 +8336,7 @@
         <v>443</v>
       </c>
       <c r="C311" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>670</v>
@@ -8343,7 +8345,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>669</v>
       </c>
@@ -8351,7 +8353,7 @@
         <v>671</v>
       </c>
       <c r="C312" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>658</v>
@@ -8360,7 +8362,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>672</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>118</v>
       </c>
       <c r="C313" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>673</v>
@@ -8377,7 +8379,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>672</v>
       </c>
@@ -8385,7 +8387,7 @@
         <v>118</v>
       </c>
       <c r="C314" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>605</v>
@@ -8394,7 +8396,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>672</v>
       </c>
@@ -8402,7 +8404,7 @@
         <v>674</v>
       </c>
       <c r="C315" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>675</v>
@@ -8411,7 +8413,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>672</v>
       </c>
@@ -8419,7 +8421,7 @@
         <v>314</v>
       </c>
       <c r="C316" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>676</v>
@@ -8428,7 +8430,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>672</v>
       </c>
@@ -8436,7 +8438,7 @@
         <v>677</v>
       </c>
       <c r="C317" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>678</v>
@@ -8445,7 +8447,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>672</v>
       </c>
@@ -8453,7 +8455,7 @@
         <v>324</v>
       </c>
       <c r="C318" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>679</v>
@@ -8462,7 +8464,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>53</v>
       </c>
@@ -8470,7 +8472,7 @@
         <v>681</v>
       </c>
       <c r="C319" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>682</v>
@@ -8479,7 +8481,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>91</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>655</v>
       </c>
       <c r="C320" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>684</v>
@@ -8504,7 +8506,7 @@
         <v>657</v>
       </c>
       <c r="C321" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>685</v>
@@ -8513,7 +8515,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>91</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>590</v>
       </c>
       <c r="C322" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>686</v>
@@ -8530,7 +8532,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>687</v>
       </c>
@@ -8538,7 +8540,7 @@
         <v>688</v>
       </c>
       <c r="C323" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>689</v>
@@ -8547,7 +8549,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>687</v>
       </c>
@@ -8555,7 +8557,7 @@
         <v>148</v>
       </c>
       <c r="C324" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>665</v>
@@ -8572,7 +8574,7 @@
         <v>597</v>
       </c>
       <c r="C325" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>690</v>
@@ -8581,7 +8583,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>687</v>
       </c>
@@ -8589,14 +8591,14 @@
         <v>597</v>
       </c>
       <c r="C326" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>691</v>
       </c>
       <c r="E326" s="3"/>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>687</v>
       </c>
@@ -8604,7 +8606,7 @@
         <v>597</v>
       </c>
       <c r="C327" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>692</v>
@@ -8613,7 +8615,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>112</v>
       </c>
@@ -8621,14 +8623,14 @@
         <v>592</v>
       </c>
       <c r="C328" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>694</v>
       </c>
       <c r="E328" s="3"/>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>112</v>
       </c>
@@ -8636,7 +8638,7 @@
         <v>592</v>
       </c>
       <c r="C329" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>679</v>
@@ -8645,7 +8647,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>135</v>
       </c>
@@ -8653,7 +8655,7 @@
         <v>695</v>
       </c>
       <c r="C330" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>696</v>
@@ -8670,7 +8672,7 @@
         <v>697</v>
       </c>
       <c r="C331" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>698</v>
@@ -8679,7 +8681,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>699</v>
       </c>
@@ -8687,7 +8689,7 @@
         <v>159</v>
       </c>
       <c r="C332" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>679</v>
@@ -8696,7 +8698,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>700</v>
       </c>
@@ -8704,7 +8706,7 @@
         <v>576</v>
       </c>
       <c r="C333" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>660</v>
@@ -8713,7 +8715,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>700</v>
       </c>
@@ -8721,14 +8723,14 @@
         <v>594</v>
       </c>
       <c r="C334" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>701</v>
       </c>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>147</v>
       </c>
@@ -8736,7 +8738,7 @@
         <v>702</v>
       </c>
       <c r="C335" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>703</v>
@@ -8745,7 +8747,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>150</v>
       </c>
@@ -8753,7 +8755,7 @@
         <v>683</v>
       </c>
       <c r="C336" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>704</v>
@@ -8762,7 +8764,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>705</v>
       </c>
@@ -8770,7 +8772,7 @@
         <v>412</v>
       </c>
       <c r="C337" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>660</v>
@@ -8779,7 +8781,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>706</v>
       </c>
@@ -8787,7 +8789,7 @@
         <v>597</v>
       </c>
       <c r="C338" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>707</v>
@@ -8796,7 +8798,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>708</v>
       </c>
@@ -8804,7 +8806,7 @@
         <v>169</v>
       </c>
       <c r="C339" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>707</v>
@@ -8813,7 +8815,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>708</v>
       </c>
@@ -8821,7 +8823,7 @@
         <v>709</v>
       </c>
       <c r="C340" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>710</v>
@@ -8830,7 +8832,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>708</v>
       </c>
@@ -8838,7 +8840,7 @@
         <v>709</v>
       </c>
       <c r="C341" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>711</v>
@@ -8847,7 +8849,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>708</v>
       </c>
@@ -8855,7 +8857,7 @@
         <v>262</v>
       </c>
       <c r="C342" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>712</v>
@@ -8864,7 +8866,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>708</v>
       </c>
@@ -8872,7 +8874,7 @@
         <v>262</v>
       </c>
       <c r="C343" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>713</v>
@@ -8881,7 +8883,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>184</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>465</v>
       </c>
       <c r="C344" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>714</v>
@@ -8898,7 +8900,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>184</v>
       </c>
@@ -8906,7 +8908,7 @@
         <v>590</v>
       </c>
       <c r="C345" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>180</v>
@@ -8923,7 +8925,7 @@
         <v>148</v>
       </c>
       <c r="C346" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>716</v>
@@ -8932,7 +8934,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>715</v>
       </c>
@@ -8940,7 +8942,7 @@
         <v>366</v>
       </c>
       <c r="C347" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>647</v>
@@ -8949,7 +8951,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>214</v>
       </c>
@@ -8957,7 +8959,7 @@
         <v>218</v>
       </c>
       <c r="C348" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>660</v>
@@ -8966,7 +8968,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>214</v>
       </c>
@@ -8974,14 +8976,14 @@
         <v>718</v>
       </c>
       <c r="C349" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>719</v>
       </c>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>720</v>
       </c>
@@ -8989,7 +8991,7 @@
         <v>721</v>
       </c>
       <c r="C350" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>660</v>
@@ -8998,7 +9000,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>722</v>
       </c>
@@ -9006,7 +9008,7 @@
         <v>235</v>
       </c>
       <c r="C351" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>723</v>
@@ -9023,7 +9025,7 @@
         <v>138</v>
       </c>
       <c r="C352" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>724</v>
@@ -9032,7 +9034,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>220</v>
       </c>
@@ -9040,14 +9042,14 @@
         <v>440</v>
       </c>
       <c r="C353" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>725</v>
       </c>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>220</v>
       </c>
@@ -9055,7 +9057,7 @@
         <v>562</v>
       </c>
       <c r="C354" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>726</v>
@@ -9064,7 +9066,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>220</v>
       </c>
@@ -9072,7 +9074,7 @@
         <v>728</v>
       </c>
       <c r="C355" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>729</v>
@@ -9081,7 +9083,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>730</v>
       </c>
@@ -9089,7 +9091,7 @@
         <v>344</v>
       </c>
       <c r="C356" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>731</v>
@@ -9098,7 +9100,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>732</v>
       </c>
@@ -9106,7 +9108,7 @@
         <v>255</v>
       </c>
       <c r="C357" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>660</v>
@@ -9123,7 +9125,7 @@
         <v>733</v>
       </c>
       <c r="C358" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>734</v>
@@ -9132,7 +9134,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>228</v>
       </c>
@@ -9140,14 +9142,14 @@
         <v>733</v>
       </c>
       <c r="C359" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>735</v>
       </c>
       <c r="E359" s="3"/>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>228</v>
       </c>
@@ -9155,7 +9157,7 @@
         <v>736</v>
       </c>
       <c r="C360" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>222</v>
@@ -9164,7 +9166,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>737</v>
       </c>
@@ -9172,7 +9174,7 @@
         <v>111</v>
       </c>
       <c r="C361" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>738</v>
@@ -9181,7 +9183,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>737</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>9</v>
       </c>
       <c r="C362" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>29</v>
@@ -9198,7 +9200,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>242</v>
       </c>
@@ -9206,7 +9208,7 @@
         <v>241</v>
       </c>
       <c r="C363" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>739</v>
@@ -9215,7 +9217,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>242</v>
       </c>
@@ -9223,7 +9225,7 @@
         <v>235</v>
       </c>
       <c r="C364" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>693</v>
@@ -9232,7 +9234,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>740</v>
       </c>
@@ -9240,7 +9242,7 @@
         <v>741</v>
       </c>
       <c r="C365" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>609</v>
@@ -9249,7 +9251,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>740</v>
       </c>
@@ -9257,14 +9259,14 @@
         <v>742</v>
       </c>
       <c r="C366" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>743</v>
       </c>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>740</v>
       </c>
@@ -9272,14 +9274,14 @@
         <v>742</v>
       </c>
       <c r="C367" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>744</v>
       </c>
       <c r="E367" s="3"/>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>745</v>
       </c>
@@ -9287,7 +9289,7 @@
         <v>410</v>
       </c>
       <c r="C368" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>660</v>
@@ -9296,7 +9298,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>746</v>
       </c>
@@ -9304,7 +9306,7 @@
         <v>597</v>
       </c>
       <c r="C369" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>747</v>
@@ -9313,7 +9315,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>748</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>358</v>
       </c>
       <c r="C370" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>749</v>
@@ -9330,7 +9332,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>266</v>
       </c>
@@ -9338,7 +9340,7 @@
         <v>576</v>
       </c>
       <c r="C371" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>750</v>
@@ -9347,7 +9349,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>751</v>
       </c>
@@ -9355,7 +9357,7 @@
         <v>9</v>
       </c>
       <c r="C372" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>752</v>
@@ -9364,7 +9366,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>751</v>
       </c>
@@ -9372,7 +9374,7 @@
         <v>753</v>
       </c>
       <c r="C373" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>754</v>
@@ -9381,7 +9383,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>277</v>
       </c>
@@ -9389,7 +9391,7 @@
         <v>154</v>
       </c>
       <c r="C374" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>660</v>
@@ -9398,7 +9400,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>278</v>
       </c>
@@ -9406,7 +9408,7 @@
         <v>755</v>
       </c>
       <c r="C375" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>660</v>
@@ -9415,7 +9417,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>756</v>
       </c>
@@ -9423,7 +9425,7 @@
         <v>757</v>
       </c>
       <c r="C376" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>758</v>
@@ -9432,7 +9434,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>756</v>
       </c>
@@ -9440,7 +9442,7 @@
         <v>757</v>
       </c>
       <c r="C377" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>759</v>
@@ -9449,7 +9451,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>760</v>
       </c>
@@ -9457,7 +9459,7 @@
         <v>312</v>
       </c>
       <c r="C378" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>761</v>
@@ -9466,7 +9468,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>762</v>
       </c>
@@ -9474,7 +9476,7 @@
         <v>763</v>
       </c>
       <c r="C379" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>660</v>
@@ -9483,7 +9485,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>762</v>
       </c>
@@ -9491,7 +9493,7 @@
         <v>721</v>
       </c>
       <c r="C380" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>764</v>
@@ -9500,7 +9502,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>762</v>
       </c>
@@ -9508,7 +9510,7 @@
         <v>765</v>
       </c>
       <c r="C381" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>766</v>
@@ -9517,7 +9519,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>767</v>
       </c>
@@ -9525,7 +9527,7 @@
         <v>70</v>
       </c>
       <c r="C382" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>660</v>
@@ -9534,7 +9536,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>767</v>
       </c>
@@ -9542,7 +9544,7 @@
         <v>728</v>
       </c>
       <c r="C383" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>222</v>
@@ -9559,7 +9561,7 @@
         <v>769</v>
       </c>
       <c r="C384" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>770</v>
@@ -9568,7 +9570,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>768</v>
       </c>
@@ -9576,7 +9578,7 @@
         <v>771</v>
       </c>
       <c r="C385" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>658</v>
@@ -9585,7 +9587,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>772</v>
       </c>
@@ -9593,7 +9595,7 @@
         <v>302</v>
       </c>
       <c r="C386" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>773</v>
@@ -9602,7 +9604,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>772</v>
       </c>
@@ -9610,14 +9612,14 @@
         <v>774</v>
       </c>
       <c r="C387" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>775</v>
       </c>
       <c r="E387" s="3"/>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>772</v>
       </c>
@@ -9625,7 +9627,7 @@
         <v>776</v>
       </c>
       <c r="C388" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>777</v>
@@ -9634,7 +9636,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>308</v>
       </c>
@@ -9642,7 +9644,7 @@
         <v>666</v>
       </c>
       <c r="C389" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>778</v>
@@ -9651,7 +9653,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>313</v>
       </c>
@@ -9659,7 +9661,7 @@
         <v>779</v>
       </c>
       <c r="C390" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>180</v>
@@ -9668,7 +9670,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>315</v>
       </c>
@@ -9676,7 +9678,7 @@
         <v>594</v>
       </c>
       <c r="C391" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>780</v>
@@ -9685,7 +9687,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>781</v>
       </c>
@@ -9693,7 +9695,7 @@
         <v>243</v>
       </c>
       <c r="C392" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>222</v>
@@ -9702,7 +9704,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>781</v>
       </c>
@@ -9710,7 +9712,7 @@
         <v>717</v>
       </c>
       <c r="C393" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>782</v>
@@ -9719,7 +9721,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>781</v>
       </c>
@@ -9727,7 +9729,7 @@
         <v>185</v>
       </c>
       <c r="C394" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>634</v>
@@ -9736,7 +9738,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>783</v>
       </c>
@@ -9744,7 +9746,7 @@
         <v>287</v>
       </c>
       <c r="C395" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>784</v>
@@ -9753,7 +9755,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>352</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>785</v>
       </c>
       <c r="C396" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>786</v>
@@ -9770,7 +9772,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>787</v>
       </c>
@@ -9778,7 +9780,7 @@
         <v>789</v>
       </c>
       <c r="C397" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>790</v>
@@ -9787,7 +9789,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>787</v>
       </c>
@@ -9795,7 +9797,7 @@
         <v>791</v>
       </c>
       <c r="C398" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>792</v>
@@ -9804,7 +9806,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>787</v>
       </c>
@@ -9812,7 +9814,7 @@
         <v>791</v>
       </c>
       <c r="C399" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>793</v>
@@ -9821,7 +9823,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>787</v>
       </c>
@@ -9829,7 +9831,7 @@
         <v>794</v>
       </c>
       <c r="C400" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>784</v>
@@ -9838,7 +9840,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>795</v>
       </c>
@@ -9846,7 +9848,7 @@
         <v>267</v>
       </c>
       <c r="C401" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>796</v>
@@ -9855,7 +9857,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>795</v>
       </c>
@@ -9863,7 +9865,7 @@
         <v>269</v>
       </c>
       <c r="C402" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>797</v>
@@ -9872,7 +9874,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>798</v>
       </c>
@@ -9880,14 +9882,14 @@
         <v>799</v>
       </c>
       <c r="C403" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>800</v>
       </c>
       <c r="E403" s="3"/>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>798</v>
       </c>
@@ -9895,7 +9897,7 @@
         <v>166</v>
       </c>
       <c r="C404" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>801</v>
@@ -9904,7 +9906,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>798</v>
       </c>
@@ -9912,7 +9914,7 @@
         <v>802</v>
       </c>
       <c r="C405" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>803</v>
@@ -9921,7 +9923,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>798</v>
       </c>
@@ -9929,7 +9931,7 @@
         <v>804</v>
       </c>
       <c r="C406" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>805</v>
@@ -9938,7 +9940,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>806</v>
       </c>
@@ -9946,7 +9948,7 @@
         <v>807</v>
       </c>
       <c r="C407" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>660</v>
@@ -9955,7 +9957,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>808</v>
       </c>
@@ -9963,7 +9965,7 @@
         <v>15</v>
       </c>
       <c r="C408" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>809</v>
@@ -9972,7 +9974,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>417</v>
       </c>
@@ -9980,7 +9982,7 @@
         <v>583</v>
       </c>
       <c r="C409" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>810</v>
@@ -9989,7 +9991,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>417</v>
       </c>
@@ -9997,7 +9999,7 @@
         <v>583</v>
       </c>
       <c r="C410" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>811</v>
@@ -10006,7 +10008,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>417</v>
       </c>
@@ -10014,7 +10016,7 @@
         <v>223</v>
       </c>
       <c r="C411" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>222</v>
@@ -10023,7 +10025,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>430</v>
       </c>
@@ -10031,7 +10033,7 @@
         <v>637</v>
       </c>
       <c r="C412" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>703</v>
@@ -10040,7 +10042,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>812</v>
       </c>
@@ -10048,7 +10050,7 @@
         <v>813</v>
       </c>
       <c r="C413" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>814</v>
@@ -10065,7 +10067,7 @@
         <v>645</v>
       </c>
       <c r="C414" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>816</v>
@@ -10074,7 +10076,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>815</v>
       </c>
@@ -10082,7 +10084,7 @@
         <v>645</v>
       </c>
       <c r="C415" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>222</v>
@@ -10099,7 +10101,7 @@
         <v>818</v>
       </c>
       <c r="C416" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>819</v>
@@ -10108,7 +10110,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -10116,7 +10118,7 @@
         <v>821</v>
       </c>
       <c r="C417" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>822</v>
@@ -10125,7 +10127,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>823</v>
       </c>
@@ -10133,7 +10135,7 @@
         <v>333</v>
       </c>
       <c r="C418" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>609</v>
@@ -10142,7 +10144,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>824</v>
       </c>
@@ -10150,7 +10152,7 @@
         <v>461</v>
       </c>
       <c r="C419" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>825</v>
@@ -10159,7 +10161,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>826</v>
       </c>
@@ -10167,7 +10169,7 @@
         <v>827</v>
       </c>
       <c r="C420" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>180</v>
@@ -10176,7 +10178,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>828</v>
       </c>
@@ -10184,7 +10186,7 @@
         <v>683</v>
       </c>
       <c r="C421" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>222</v>
@@ -10193,7 +10195,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>829</v>
       </c>
@@ -10201,7 +10203,7 @@
         <v>820</v>
       </c>
       <c r="C422" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>830</v>
@@ -10210,7 +10212,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>829</v>
       </c>
@@ -10218,14 +10220,14 @@
         <v>820</v>
       </c>
       <c r="C423" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>831</v>
       </c>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>829</v>
       </c>
@@ -10233,7 +10235,7 @@
         <v>561</v>
       </c>
       <c r="C424" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>222</v>
@@ -10242,7 +10244,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>829</v>
       </c>
@@ -10250,7 +10252,7 @@
         <v>791</v>
       </c>
       <c r="C425" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>832</v>
@@ -10259,7 +10261,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>474</v>
       </c>
@@ -10267,7 +10269,7 @@
         <v>531</v>
       </c>
       <c r="C426" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>660</v>
@@ -10284,7 +10286,7 @@
         <v>531</v>
       </c>
       <c r="C427" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>833</v>
@@ -10301,7 +10303,7 @@
         <v>834</v>
       </c>
       <c r="C428" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>835</v>
@@ -10318,7 +10320,7 @@
         <v>834</v>
       </c>
       <c r="C429" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D429" s="3" t="s">
         <v>836</v>
@@ -10327,7 +10329,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>474</v>
       </c>
@@ -10335,7 +10337,7 @@
         <v>788</v>
       </c>
       <c r="C430" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>837</v>
@@ -10344,7 +10346,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>838</v>
       </c>
@@ -10352,7 +10354,7 @@
         <v>594</v>
       </c>
       <c r="C431" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>839</v>
@@ -10361,7 +10363,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>838</v>
       </c>
@@ -10369,7 +10371,7 @@
         <v>742</v>
       </c>
       <c r="C432" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>840</v>
@@ -10378,7 +10380,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>500</v>
       </c>
@@ -10386,7 +10388,7 @@
         <v>841</v>
       </c>
       <c r="C433" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D433" s="3" t="s">
         <v>605</v>
@@ -10395,7 +10397,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>500</v>
       </c>
@@ -10403,7 +10405,7 @@
         <v>198</v>
       </c>
       <c r="C434" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D434" s="3" t="s">
         <v>842</v>
@@ -10412,7 +10414,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>500</v>
       </c>
@@ -10420,7 +10422,7 @@
         <v>198</v>
       </c>
       <c r="C435" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D435" s="3" t="s">
         <v>843</v>
@@ -10429,7 +10431,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>500</v>
       </c>
@@ -10437,7 +10439,7 @@
         <v>201</v>
       </c>
       <c r="C436" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>844</v>
@@ -10446,7 +10448,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>500</v>
       </c>
@@ -10454,7 +10456,7 @@
         <v>201</v>
       </c>
       <c r="C437" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D437" s="3" t="s">
         <v>845</v>
@@ -10463,7 +10465,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>500</v>
       </c>
@@ -10471,14 +10473,14 @@
         <v>619</v>
       </c>
       <c r="C438" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>846</v>
       </c>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>500</v>
       </c>
@@ -10486,7 +10488,7 @@
         <v>619</v>
       </c>
       <c r="C439" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D439" s="3" t="s">
         <v>658</v>
@@ -10503,7 +10505,7 @@
         <v>847</v>
       </c>
       <c r="C440" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>848</v>
@@ -10512,7 +10514,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>516</v>
       </c>
@@ -10520,7 +10522,7 @@
         <v>14</v>
       </c>
       <c r="C441" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D441" s="3" t="s">
         <v>849</v>
@@ -10529,7 +10531,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>516</v>
       </c>
@@ -10537,7 +10539,7 @@
         <v>620</v>
       </c>
       <c r="C442" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D442" s="3" t="s">
         <v>222</v>
@@ -10554,7 +10556,7 @@
         <v>789</v>
       </c>
       <c r="C443" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>851</v>
@@ -10563,7 +10565,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>516</v>
       </c>
@@ -10571,14 +10573,14 @@
         <v>87</v>
       </c>
       <c r="C444" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>852</v>
       </c>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>853</v>
       </c>
@@ -10586,7 +10588,7 @@
         <v>850</v>
       </c>
       <c r="C445" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>731</v>
@@ -10595,7 +10597,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>523</v>
       </c>
@@ -10603,7 +10605,7 @@
         <v>115</v>
       </c>
       <c r="C446" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>180</v>
@@ -10612,7 +10614,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>854</v>
       </c>
@@ -10620,7 +10622,7 @@
         <v>855</v>
       </c>
       <c r="C447" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>856</v>
@@ -10629,7 +10631,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>854</v>
       </c>
@@ -10637,7 +10639,7 @@
         <v>855</v>
       </c>
       <c r="C448" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>222</v>
@@ -10646,7 +10648,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>857</v>
       </c>
@@ -10654,7 +10656,7 @@
         <v>858</v>
       </c>
       <c r="C449" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>859</v>
@@ -10663,7 +10665,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>533</v>
       </c>
@@ -10671,7 +10673,7 @@
         <v>188</v>
       </c>
       <c r="C450" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D450" s="3" t="s">
         <v>860</v>
@@ -10680,7 +10682,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>534</v>
       </c>
@@ -10688,7 +10690,7 @@
         <v>54</v>
       </c>
       <c r="C451" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>68</v>
@@ -10697,7 +10699,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>862</v>
       </c>
@@ -10705,7 +10707,7 @@
         <v>275</v>
       </c>
       <c r="C452" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D452" s="3" t="s">
         <v>180</v>
@@ -10714,7 +10716,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>863</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>861</v>
       </c>
       <c r="C453" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>68</v>
@@ -10731,7 +10733,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>864</v>
       </c>
@@ -10739,7 +10741,7 @@
         <v>727</v>
       </c>
       <c r="C454" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>865</v>
@@ -10748,7 +10750,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>864</v>
       </c>
@@ -10756,7 +10758,7 @@
         <v>727</v>
       </c>
       <c r="C455" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>609</v>
@@ -10765,7 +10767,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>560</v>
       </c>
@@ -10773,7 +10775,7 @@
         <v>866</v>
       </c>
       <c r="C456" t="s">
-        <v>573</v>
+        <v>890</v>
       </c>
       <c r="D456" s="3" t="s">
         <v>665</v>
@@ -10783,13 +10785,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E456">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Change Schedule"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E456"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
